--- a/results/stimulated_NAMU_results_analysis/functional_analysis_of_hubs/centralhubs.xlsx
+++ b/results/stimulated_NAMU_results_analysis/functional_analysis_of_hubs/centralhubs.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:H204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +380,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Centrality</t>
+          <t>total.abs.centrality</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -421,7 +421,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>1.183138037574075</v>
+        <v>1.158038837081618</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>1.531907537265003</v>
+        <v>1.503673005198208</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>1.184313258196749</v>
+        <v>1.159193160496651</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>1.383057175013169</v>
+        <v>1.357346922621132</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>1.533986409916349</v>
+        <v>1.505723796308598</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>1.555379441398113</v>
+        <v>1.517380891125303</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="E8">
-        <v>1.449979325190522</v>
+        <v>1.424634427958579</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>1.457410058901467</v>
+        <v>1.432100157179635</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>1.7638078573035</v>
+        <v>1.680938136530594</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>1.715099621921782</v>
+        <v>1.658857183377454</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E12">
-        <v>1.197384697993654</v>
+        <v>1.172177677015863</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.6670017724629255</v>
+        <v>0.5769190972562352</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="E14">
-        <v>1.201158322429991</v>
+        <v>1.175963406636099</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="E15">
-        <v>1.303125834069851</v>
+        <v>1.272685954169221</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="E16">
-        <v>1.457410058914363</v>
+        <v>1.432100157192531</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="E17">
-        <v>1.215826626785583</v>
+        <v>1.185118533407879</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="E18">
-        <v>1.370990444682588</v>
+        <v>1.34574821484334</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="E19">
-        <v>1.209098445826913</v>
+        <v>1.184057239827535</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="E20">
-        <v>1.725443293119638</v>
+        <v>1.668388665452306</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="E21">
-        <v>1.263888016796932</v>
+        <v>1.227538552009193</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E22">
-        <v>1.450743663209276</v>
+        <v>1.424365713506189</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="E23">
-        <v>1.182751756094776</v>
+        <v>1.157627920718759</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="E24">
-        <v>1.457410058916199</v>
+        <v>1.432100157194366</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="E25">
-        <v>1.696089672921646</v>
+        <v>1.642526058456039</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="E26">
-        <v>1.137467893692588</v>
+        <v>1.112847696298234</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="E27">
-        <v>1.718581398386014</v>
+        <v>1.663936670054114</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="E28">
-        <v>1.218374697948822</v>
+        <v>1.193195428467611</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="E29">
-        <v>1.207384090237093</v>
+        <v>1.156058955395624</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.5553289786570206</v>
+        <v>0.2793612159544854</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         </is>
       </c>
       <c r="E31">
-        <v>1.138517673632025</v>
+        <v>1.105136407376328</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="E32">
-        <v>1.117714401715141</v>
+        <v>1.092557441274213</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E33">
-        <v>1.646007491571593</v>
+        <v>1.562563228453644</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="E34">
-        <v>1.661037242001354</v>
+        <v>1.592470759248352</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="E35">
-        <v>1.696089672936475</v>
+        <v>1.642526058470869</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="E36">
-        <v>1.119434441233024</v>
+        <v>1.094221088188608</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.6493894002890003</v>
+        <v>0.4875416441678252</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="E38">
-        <v>1.20982541546074</v>
+        <v>1.18464873993951</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="E39">
-        <v>1.436171701363724</v>
+        <v>1.394638907216315</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="E40">
-        <v>1.22953800182028</v>
+        <v>1.170314126032261</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1761,7 +1761,7 @@
         </is>
       </c>
       <c r="E41">
-        <v>1.817310276705908</v>
+        <v>1.754525354190565</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="E42">
-        <v>1.382704702852713</v>
+        <v>1.356208479786753</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="E43">
-        <v>1.441862522207961</v>
+        <v>1.383016208858576</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E44">
-        <v>1.459368440634579</v>
+        <v>1.400522162571247</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="E45">
-        <v>1.364580236020581</v>
+        <v>1.33809051425877</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="E46">
-        <v>1.441862232487125</v>
+        <v>1.383015919137741</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="E47">
-        <v>1.366821505319618</v>
+        <v>1.340334398124225</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="E48">
-        <v>1.441862521880148</v>
+        <v>1.383016208530764</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E49">
-        <v>1.37680563021749</v>
+        <v>1.349887309042089</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="E50">
-        <v>1.215321611082806</v>
+        <v>1.190115313305961</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E51">
-        <v>1.457410058917522</v>
+        <v>1.43210015719569</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="E52">
-        <v>1.205143853518943</v>
+        <v>1.180108383310287</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="E53">
-        <v>1.181253929819742</v>
+        <v>1.15612743202104</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="E54">
-        <v>1.205143853518443</v>
+        <v>1.180108383309787</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="E55">
-        <v>1.181253929818075</v>
+        <v>1.156127432019372</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E56">
-        <v>1.122297327275095</v>
+        <v>1.097401230104169</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         </is>
       </c>
       <c r="E57">
-        <v>1.457410058918485</v>
+        <v>1.432100157196652</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="E58">
-        <v>1.526553061113328</v>
+        <v>1.500950842109249</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="E59">
-        <v>1.377606255549563</v>
+        <v>1.327509513255332</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E60">
-        <v>1.771186774488365</v>
+        <v>1.716595119966003</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="E61">
-        <v>1.115710480508763</v>
+        <v>1.09053369012154</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="E62">
-        <v>1.498538701107202</v>
+        <v>1.451314252042001</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.6440917146192479</v>
+        <v>0.4653659672787544</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="E64">
-        <v>1.183095805084104</v>
+        <v>1.158016276814403</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="E65">
-        <v>1.181576277175802</v>
+        <v>1.156493915557157</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="E66">
-        <v>1.458305828813248</v>
+        <v>1.432233314637122</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="E67">
-        <v>1.184258438298063</v>
+        <v>1.159135123221635</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="E68">
-        <v>1.536275211944872</v>
+        <v>1.507928665032763</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="E69">
-        <v>1.228662622655966</v>
+        <v>1.186055755845822</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E70">
-        <v>1.457410058905212</v>
+        <v>1.43210015718338</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="E71">
-        <v>1.459271332868185</v>
+        <v>1.433385333920119</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>1.189024681439478</v>
+        <v>1.163965675980122</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="E73">
-        <v>1.748172845131061</v>
+        <v>1.689923546214647</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="E74">
-        <v>1.30134901386679</v>
+        <v>1.273994927852809</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="E75">
-        <v>1.197060201266089</v>
+        <v>1.171758246945024</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="E76">
-        <v>1.38910088367937</v>
+        <v>1.363250483199897</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="E77">
-        <v>1.457410058918359</v>
+        <v>1.432100157196526</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="E78">
-        <v>1.321761098871225</v>
+        <v>1.285292365481566</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="E79">
-        <v>1.247375804946608</v>
+        <v>1.211170707392719</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="E80">
-        <v>1.715820243986498</v>
+        <v>1.662177728221251</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="E81">
-        <v>1.737860982008202</v>
+        <v>1.668769226451302</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="E82">
-        <v>1.504185376202439</v>
+        <v>1.478607225420653</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -3282,17 +3282,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PETOHMm_hs</t>
+          <t>PCFLOPm</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>phosphatidylethanolamine N-methyltransferase Astrocyte</t>
+          <t>phosphatidylcholine flippase Astrocyte</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3.0 amet[mA] + pe_hs[mA] --&gt; 3.0 ahcys[mA] + 3.0 h[mA] + pchol_hs[mA]</t>
+          <t>atp[cA] + h2o[cA] + pchol_hs[mA] --&gt; adp[cA] + h[cA] + pchol_hs[cA] + pi[cA]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="E83">
-        <v>1.128145111138585</v>
+        <v>0.2673737983266192</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3310,29 +3310,24 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10400, 10400, 10400</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>10400</t>
+          <t>57194</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PHCDm</t>
+          <t>PEFLIP</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>L-1-pyrroline-3-hydroxy-5-carboxylate dehydrogenase Astrocyte</t>
+          <t>phosphatidylethanolamine flippase Astrocyte</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1p3h5c[mA] + 2.0 h2o[mA] + nad[mA] --&gt; e4hglu[mA] + h[mA] + nadh[mA]</t>
+          <t>atp[cA] + h2o[cA] + pe_hs[e] --&gt; adp[cA] + h[cA] + pe_hs[cA] + pi[cA]</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3341,7 +3336,7 @@
         </is>
       </c>
       <c r="E84">
-        <v>1.449979325195822</v>
+        <v>0.2573511201357153</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3350,29 +3345,24 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>8659, 8659</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>8659</t>
+          <t>10396, 57194, 5244</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>PHCHGSm</t>
+          <t>PEFLIPm</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>L-1-Pyrroline-3-hydroxy-5-carboxylate spontaneous conversion to L-4-Hydroxyglutamate semialdehyde, mitochondrial Astrocyte</t>
+          <t>phosphatidylethanolamine flippase Astrocyte</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1p3h5c[mA] + h2o[mA] + h[mA] &lt;=&gt; 4hglusa[mA]</t>
+          <t>atp[cA] + h2o[cA] + pe_hs[cA] --&gt; adp[cA] + h[cA] + pe_hs[mA] + pi[cA]</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3381,28 +3371,33 @@
         </is>
       </c>
       <c r="E85">
-        <v>1.370990444658482</v>
+        <v>0.2498303036274206</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>57194, 10396</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>PIt2m</t>
+          <t>PETOHMm_hs</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>phosphate transporter, mitochondrial Astrocyte</t>
+          <t>phosphatidylethanolamine N-methyltransferase Astrocyte</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>h[cA] + pi[cA] &lt;=&gt; h[mA] + pi[mA]</t>
+          <t>3.0 amet[mA] + pe_hs[mA] --&gt; 3.0 ahcys[mA] + 3.0 h[mA] + pchol_hs[mA]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3411,7 +3406,7 @@
         </is>
       </c>
       <c r="E86">
-        <v>2.007623695966849</v>
+        <v>1.100957655961269</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3420,24 +3415,29 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>5250, 5250, 5250, 5250</t>
+          <t>10400, 10400, 10400</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>10400</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PNTKm</t>
+          <t>PHCDm</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>pantothenate kinase (mitochondrial) Astrocyte</t>
+          <t>L-1-pyrroline-3-hydroxy-5-carboxylate dehydrogenase Astrocyte</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>atp[mA] + pnto-R[mA] --&gt; 4ppan[mA] + adp[mA] + h[mA]</t>
+          <t>1p3h5c[mA] + 2.0 h2o[mA] + nad[mA] --&gt; e4hglu[mA] + h[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E87">
-        <v>1.224466175303337</v>
+        <v>1.42463442796388</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3455,24 +3455,29 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>80025</t>
+          <t>8659, 8659</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>8659</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PPA2m</t>
+          <t>PHCHGSm</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>inorganic triphosphatase, mitochondrial Astrocyte</t>
+          <t>L-1-Pyrroline-3-hydroxy-5-carboxylate spontaneous conversion to L-4-Hydroxyglutamate semialdehyde, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>h2o[mA] + pppi[mA] --&gt; h[mA] + pi[mA] + ppi[mA]</t>
+          <t>1p3h5c[mA] + h2o[mA] + h[mA] &lt;=&gt; 4hglusa[mA]</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3481,33 +3486,28 @@
         </is>
       </c>
       <c r="E88">
-        <v>1.513110955486501</v>
+        <v>1.345748214819235</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>27068, 5464, 64077</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PPCOACm</t>
+          <t>PIt2m</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Propionyl-CoA carboxylase, mitochondrial Astrocyte</t>
+          <t>phosphate transporter, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>atp[mA] + hco3[mA] + ppcoa[mA] --&gt; adp[mA] + h[mA] + mmcoa-S[mA] + pi[mA]</t>
+          <t>h[cA] + pi[cA] &lt;=&gt; h[mA] + pi[mA]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="E89">
-        <v>1.309639451493925</v>
+        <v>1.880339464400353</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3525,29 +3525,24 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>5096, 5095</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>5095, 5096</t>
+          <t>5250, 5250, 5250, 5250</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PYLALDOXm</t>
+          <t>PNTKm</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Perillyl aldehyde:NAD+ oxidoreductase (m) Astrocyte</t>
+          <t>pantothenate kinase (mitochondrial) Astrocyte</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>h2o[mA] + nad[mA] + pylald[mA] --&gt; 2.0 h[mA] + nadh[mA] + peracd[mA]</t>
+          <t>atp[mA] + pnto-R[mA] --&gt; 4ppan[mA] + adp[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3556,7 +3551,7 @@
         </is>
       </c>
       <c r="E90">
-        <v>1.457410058940086</v>
+        <v>1.199279900558193</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3565,24 +3560,24 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>8659, 8659, 219, 217</t>
+          <t>80025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PYRt2m</t>
+          <t>PPA2m</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>pyruvate mitochondrial transport via proton symport Astrocyte</t>
+          <t>inorganic triphosphatase, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>h[cA] + pyr[cA] &lt;=&gt; h[mA] + pyr[mA]</t>
+          <t>h2o[mA] + pppi[mA] --&gt; h[mA] + pi[mA] + ppi[mA]</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3591,33 +3586,33 @@
         </is>
       </c>
       <c r="E91">
-        <v>1.72602225135177</v>
+        <v>1.456696402365853</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>6566</t>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>27068, 5464, 64077</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SACCD3m</t>
+          <t>PPCOACm</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>saccharopine dehydrogenase (NADP, L-lysine forming), mitochondrial Astrocyte</t>
+          <t>Propionyl-CoA carboxylase, mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>akg[mA] + h[mA] + lys-L[mA] + nadph[mA] --&gt; h2o[mA] + nadp[mA] + saccrp-L[mA]</t>
+          <t>atp[mA] + hco3[mA] + ppcoa[mA] --&gt; adp[mA] + h[mA] + mmcoa-S[mA] + pi[mA]</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3626,7 +3621,7 @@
         </is>
       </c>
       <c r="E92">
-        <v>1.456567595543474</v>
+        <v>1.282754127965307</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3635,29 +3630,29 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10157</t>
+          <t>5096, 5095</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>10157</t>
+          <t>5095, 5096</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SACCD4m</t>
+          <t>PYLALDOXm</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>saccharopine dehydrogenase (NAD, L-glutamate forming), mitochondrial Astrocyte</t>
+          <t>Perillyl aldehyde:NAD+ oxidoreductase (m) Astrocyte</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>h2o[mA] + nadp[mA] + saccrp-L[mA] --&gt; L2aadp6sa[mA] + glu-L[mA] + h[mA] + nadph[mA]</t>
+          <t>h2o[mA] + nad[mA] + pylald[mA] --&gt; 2.0 h[mA] + nadh[mA] + peracd[mA]</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3666,7 +3661,7 @@
         </is>
       </c>
       <c r="E93">
-        <v>1.429906752071001</v>
+        <v>1.432100157218253</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3675,29 +3670,24 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10157</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>10157</t>
+          <t>8659, 8659, 219, 217</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SLDxm</t>
+          <t>PYRt2m</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>L-sulfolactate dehydrogenase (NAD+), mitochondrial Astrocyte</t>
+          <t>pyruvate mitochondrial transport via proton symport Astrocyte</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>nad[mA] + sl-L[mA] &lt;=&gt; 3spyr[mA] + h[mA] + nadh[mA]</t>
+          <t>h[cA] + pyr[cA] &lt;=&gt; h[mA] + pyr[mA]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3706,7 +3696,7 @@
         </is>
       </c>
       <c r="E94">
-        <v>1.184174214612353</v>
+        <v>1.664221311137273</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3715,24 +3705,24 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>4191</t>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>THD1m</t>
+          <t>SACCD3m</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NAD(P) transhydrogenase Astrocyte</t>
+          <t>saccharopine dehydrogenase (NADP, L-lysine forming), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>h[cA] + nadh[mA] + nadp[mA] &lt;=&gt; h[mA] + nad[mA] + nadph[mA]</t>
+          <t>akg[mA] + h[mA] + lys-L[mA] + nadph[mA] --&gt; h2o[mA] + nadp[mA] + saccrp-L[mA]</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3741,7 +3731,7 @@
         </is>
       </c>
       <c r="E95">
-        <v>1.932122326638377</v>
+        <v>1.431072402118984</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3750,29 +3740,29 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23530, 23530</t>
+          <t>10157</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>23530</t>
+          <t>10157</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TKT2</t>
+          <t>SACCD4m</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>transketolase Astrocyte</t>
+          <t>saccharopine dehydrogenase (NAD, L-glutamate forming), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>e4p[cA] + xu5p-D[cA] &lt;=&gt; f6p[cA] + g3p[cA]</t>
+          <t>h2o[mA] + nadp[mA] + saccrp-L[mA] --&gt; L2aadp6sa[mA] + glu-L[mA] + h[mA] + nadph[mA]</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3781,33 +3771,38 @@
         </is>
       </c>
       <c r="E96">
-        <v>0.5015126878122728</v>
+        <v>1.404393869249652</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>10157</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>7086.1, 84076.1, 8277.1</t>
+          <t>10157</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TMDK1m</t>
+          <t>SLDxm</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>thymidine kinase (ATP:thymidine) Astrocyte</t>
+          <t>L-sulfolactate dehydrogenase (NAD+), mitochondrial Astrocyte</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>atp[mA] + thymd[mA] --&gt; adp[mA] + dtmp[mA] + h[mA]</t>
+          <t>nad[mA] + sl-L[mA] &lt;=&gt; 3spyr[mA] + h[mA] + nadh[mA]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3816,7 +3811,7 @@
         </is>
       </c>
       <c r="E97">
-        <v>1.244257946876669</v>
+        <v>1.159044699118803</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3825,24 +3820,24 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>7084</t>
+          <t>4191</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>TRDRm</t>
+          <t>THD1m</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>thioredoxin reductase (NADPH) Astrocyte</t>
+          <t>NAD(P) transhydrogenase Astrocyte</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>h[mA] + nadph[mA] + trdox[mA] --&gt; nadp[mA] + trdrd[mA]</t>
+          <t>h[cA] + nadh[mA] + nadp[mA] &lt;=&gt; h[mA] + nad[mA] + nadph[mA]</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3851,7 +3846,7 @@
         </is>
       </c>
       <c r="E98">
-        <v>1.112550825824232</v>
+        <v>1.802273097465221</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3860,24 +3855,29 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>114112, 10587, 10587, 10587</t>
+          <t>23530, 23530</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>23530</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>VITD2Hm</t>
+          <t>TKT2</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Vitamin D-25-hydroxylase (D2) Astrocyte</t>
+          <t>transketolase Astrocyte</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>h[mA] + nadph[mA] + o2[mA] + vitd2[mA] --&gt; 25hvitd2[mA] + h2o[mA] + nadp[mA]</t>
+          <t>e4p[cA] + xu5p-D[cA] &lt;=&gt; f6p[cA] + g3p[cA]</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3886,38 +3886,33 @@
         </is>
       </c>
       <c r="E99">
-        <v>1.49096769593192</v>
+        <v>0.2814807721887241</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>1593</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>120227</t>
+          <t>7086.1, 84076.1, 8277.1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>VITD3Hm</t>
+          <t>TMDK1m</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Vitamin D-25-hydroxylase (D3) Astrocyte</t>
+          <t>thymidine kinase (ATP:thymidine) Astrocyte</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>h[mA] + nadph[mA] + o2[mA] + vitd3[mA] --&gt; 25hvitd3[mA] + h2o[mA] + nadp[mA]</t>
+          <t>atp[mA] + thymd[mA] --&gt; adp[mA] + dtmp[mA] + h[mA]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3926,7 +3921,7 @@
         </is>
       </c>
       <c r="E100">
-        <v>1.50853126520238</v>
+        <v>1.219045087428867</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3935,29 +3930,24 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1593</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>120227</t>
+          <t>7084</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>MTDNAdpolym</t>
+          <t>TRDRm</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>depolymerization of mtDNA for repair Astrocyte</t>
+          <t>thioredoxin reductase (NADPH) Astrocyte</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>33136.0 h2o[mA] + mtDNAn[mA] --&gt; 9218.0 damp[mA] + 7350.0 dcmp[mA] + 7350.0 dgmp[mA] + 9218.0 dtmp[mA] + 33136.0 h[mA] + mtDNAn-1[mA]</t>
+          <t>h[mA] + nadph[mA] + trdox[mA] --&gt; nadp[mA] + trdrd[mA]</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3966,7 +3956,7 @@
         </is>
       </c>
       <c r="E101">
-        <v>1.398762950035645</v>
+        <v>1.087368574429804</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3975,29 +3965,24 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>5810, 5883, 11219, 11277</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>11219, 11277, 5810, 5883</t>
+          <t>114112, 10587, 10587, 10587</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NH3tm</t>
+          <t>VITD2Hm</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>mitochondrial ammonium transport Astrocyte</t>
+          <t>Vitamin D-25-hydroxylase (D2) Astrocyte</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>h[mA] + nh4[cA] &lt;=&gt; h[cA] + nh4[mA]</t>
+          <t>h[mA] + nadph[mA] + o2[mA] + vitd2[mA] --&gt; 25hvitd2[mA] + h2o[mA] + nadp[mA]</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4006,123 +3991,148 @@
         </is>
       </c>
       <c r="E102">
-        <v>1.783388136856231</v>
+        <v>1.432995627112188</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>120227</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1a,24,25VITD2Hm_Neuron</t>
+          <t>VITD3Hm</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1-alpha-Vitamin D-24,25-hydroxylase (D2) Neuron</t>
+          <t>Vitamin D-25-hydroxylase (D3) Astrocyte</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2425dhvitd2[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a2425thvitd2[mN] + h2o[mN] + nadp[mN]</t>
+          <t>h[mA] + nadph[mA] + o2[mA] + vitd3[mA] --&gt; 25hvitd3[mA] + h2o[mA] + nadp[mA]</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E103">
-        <v>1.010586059091451</v>
+        <v>1.433771033451004</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>120227</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1a,24,25VITD3Hm_Neuron</t>
+          <t>MTDNAdpolym</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1-alpha-Vitamin D-24,25-hydroxylase (D3) Neuron</t>
+          <t>depolymerization of mtDNA for repair Astrocyte</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2425dhvitd3[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a2425thvitd3[mN] + h2o[mN] + nadp[mN]</t>
+          <t>33136.0 h2o[mA] + mtDNAn[mA] --&gt; 9218.0 damp[mA] + 7350.0 dcmp[mA] + 7350.0 dgmp[mA] + 9218.0 dtmp[mA] + 33136.0 h[mA] + mtDNAn-1[mA]</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E104">
-        <v>1.010586059087279</v>
+        <v>1.36498679569485</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>5810, 5883, 11219, 11277</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>11219, 11277, 5810, 5883</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1a,25VITD2Hm_Neuron</t>
+          <t>NH3tm</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1-alpha,24R,25-Vitamin D-hydroxylase (D2) Neuron</t>
+          <t>mitochondrial ammonium transport Astrocyte</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1a25dhvitd2[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a2425thvitd2[mN] + h2o[mN] + nadp[mN]</t>
+          <t>h[mA] + nh4[cA] &lt;=&gt; h[cA] + nh4[mA]</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Neuron</t>
+          <t>Astrocyte</t>
         </is>
       </c>
       <c r="E105">
-        <v>1.010586059092434</v>
+        <v>1.706130496511437</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>1591</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1a,25VITD3Hm_Neuron</t>
+          <t>1a,24,25VITD2Hm_Neuron</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1-alpha,24R,25-Vitamin D-hydroxylase (D3) Neuron</t>
+          <t>1-alpha-Vitamin D-24,25-hydroxylase (D2) Neuron</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1a25dhvitd3[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a2425thvitd3[mN] + h2o[mN] + nadp[mN]</t>
+          <t>2425dhvitd2[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a2425thvitd2[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4131,33 +4141,28 @@
         </is>
       </c>
       <c r="E106">
-        <v>1.010586059091891</v>
+        <v>0.9846233529184194</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>1591</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>24,25VITD2Hm_Neuron</t>
+          <t>1a,24,25VITD3Hm_Neuron</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>24R-Vitamin D-25-hydroxylase (D2) Neuron</t>
+          <t>1-alpha-Vitamin D-24,25-hydroxylase (D3) Neuron</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>25hvitd2[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 2425dhvitd2[mN] + h2o[mN] + nadp[mN]</t>
+          <t>2425dhvitd3[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a2425thvitd3[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4166,7 +4171,7 @@
         </is>
       </c>
       <c r="E107">
-        <v>1.00676566389785</v>
+        <v>0.9846233529142469</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -4177,17 +4182,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>24,25VITD3Hm_Neuron</t>
+          <t>1a,25VITD2Hm_Neuron</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>24R-Vitamin D-25-hydroxylase (D3) Neuron</t>
+          <t>1-alpha,24R,25-Vitamin D-hydroxylase (D2) Neuron</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>25hvitd3[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 2425dhvitd3[mN] + h2o[mN] + nadp[mN]</t>
+          <t>1a25dhvitd2[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a2425thvitd2[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4196,28 +4201,33 @@
         </is>
       </c>
       <c r="E108">
-        <v>1.006766383969888</v>
+        <v>0.984623352919402</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>1591</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>25VITD2Hm_Neuron</t>
+          <t>1a,25VITD3Hm_Neuron</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1-alpha-Vitamin D-25-hydroxylase (D2) Neuron</t>
+          <t>1-alpha,24R,25-Vitamin D-hydroxylase (D3) Neuron</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>25hvitd2[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a25dhvitd2[mN] + h2o[mN] + nadp[mN]</t>
+          <t>1a25dhvitd3[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a2425thvitd3[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4226,28 +4236,33 @@
         </is>
       </c>
       <c r="E109">
-        <v>1.00676566389787</v>
+        <v>0.9846233529188592</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>1591</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>25VITD3Hm_Neuron</t>
+          <t>24,25VITD2Hm_Neuron</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>1-alpha-Vitamin D-25-hydroxylase (D3) Neuron</t>
+          <t>24R-Vitamin D-25-hydroxylase (D2) Neuron</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>25hvitd3[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a25dhvitd3[mN] + h2o[mN] + nadp[mN]</t>
+          <t>25hvitd2[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 2425dhvitd2[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4256,7 +4271,7 @@
         </is>
       </c>
       <c r="E110">
-        <v>1.0067663840031</v>
+        <v>0.9808814751361382</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4267,17 +4282,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>34HPLFM_Neuron</t>
+          <t>24,25VITD3Hm_Neuron</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3-(4-hydroxyphenyl-)lactate formation Neuron</t>
+          <t>24R-Vitamin D-25-hydroxylase (D3) Neuron</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>34hpp[mN] + h[mN] + nadh[mN] --&gt; 34hpl[mN] + nad[mN]</t>
+          <t>25hvitd3[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 2425dhvitd3[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4286,7 +4301,7 @@
         </is>
       </c>
       <c r="E111">
-        <v>0.9130839188892683</v>
+        <v>0.9808815513261248</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4297,17 +4312,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3DPHBH1_Neuron</t>
+          <t>25VITD2Hm_Neuron</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADH) Neuron</t>
+          <t>1-alpha-Vitamin D-25-hydroxylase (D2) Neuron</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3dphb[mN] + h[mN] + nadh[mN] + o2[mN] --&gt; 3dpdhb[mN] + h2o[mN] + nad[mN]</t>
+          <t>25hvitd2[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a25dhvitd2[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4316,7 +4331,7 @@
         </is>
       </c>
       <c r="E112">
-        <v>1.058831677949676</v>
+        <v>0.9808814751361586</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4327,17 +4342,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>3HBCOAHLm_Neuron</t>
+          <t>25VITD3Hm_Neuron</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3-hydroxyisobutyryl-CoA hydrolase, mitochondrial Neuron</t>
+          <t>1-alpha-Vitamin D-25-hydroxylase (D3) Neuron</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3hibutcoa[mN] + h2o[mN] --&gt; 3hmp[mN] + coa[mN] + h[mN]</t>
+          <t>25hvitd3[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 1a25dhvitd3[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4346,33 +4361,28 @@
         </is>
       </c>
       <c r="E113">
-        <v>1.073591391783314</v>
+        <v>0.9808815513593362</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>26275</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3SALATAim_Neuron</t>
+          <t>34HPLFM_Neuron</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3-sulfino-alanine transaminase (irreversible), mitochondrial Neuron</t>
+          <t>3-(4-hydroxyphenyl-)lactate formation Neuron</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3sala[mN] + akg[mN] + h[mN] --&gt; 3snpyr[mN] + glu-L[mN]</t>
+          <t>34hpp[mN] + h[mN] + nadh[mN] --&gt; 34hpl[mN] + nad[mN]</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4381,33 +4391,28 @@
         </is>
       </c>
       <c r="E114">
-        <v>0.9137097228681469</v>
+        <v>0.8873289974950013</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2806.1</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3SPYRSPm_Neuron</t>
+          <t>3DPHBH1_Neuron</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3-sulfinopyruvate hydrolase (spotaneous reaction), mitochondrial Neuron</t>
+          <t>Hydroxylation of 3-Decaprenyl-4-hydroxybenzoate (NADH) Neuron</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3snpyr[mN] + h2o[mN] --&gt; h[mN] + pyr[mN] + so3[mN]</t>
+          <t>3dphb[mN] + h[mN] + nadh[mN] + o2[mN] --&gt; 3dpdhb[mN] + h2o[mN] + nad[mN]</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4416,7 +4421,7 @@
         </is>
       </c>
       <c r="E115">
-        <v>1.003498401048472</v>
+        <v>1.023123862301658</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -4427,17 +4432,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>4HBZCOAFm_Neuron</t>
+          <t>3HBCOAHLm_Neuron</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>4-hydroxybenzoyl-CoA formation Neuron</t>
+          <t>3-hydroxyisobutyryl-CoA hydrolase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>coa[mN] + coucoa[mN] + h2o[mN] + nad[mN] --&gt; 4hbzcoa[mN] + accoa[mN] + h[mN] + nadh[mN]</t>
+          <t>3hibutcoa[mN] + h2o[mN] --&gt; 3hmp[mN] + coa[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4446,28 +4451,33 @@
         </is>
       </c>
       <c r="E116">
-        <v>1.083565591544553</v>
+        <v>1.045134218220776</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>26275</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>4HBZFm_Neuron</t>
+          <t>3SALATAim_Neuron</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4-hydroxybenzoate formation Neuron</t>
+          <t>3-sulfino-alanine transaminase (irreversible), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>4hbzcoa[mN] + h2o[mN] --&gt; 4hbz[mN] + coa[mN] + h[mN]</t>
+          <t>3sala[mN] + akg[mN] + h[mN] --&gt; 3snpyr[mN] + glu-L[mN]</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4476,28 +4486,33 @@
         </is>
       </c>
       <c r="E117">
-        <v>1.095909211792984</v>
+        <v>0.8879570784334673</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2806.1</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>5HOXINDACTOXm_Neuron</t>
+          <t>3SPYRSPm_Neuron</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5-Hydroxyindoleacetaldehyde:NAD+ oxidoreductase (mito) Neuron</t>
+          <t>3-sulfinopyruvate hydrolase (spotaneous reaction), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>5hoxindact[mN] + h2o[mN] + nad[mN] --&gt; 5hoxindoa[mN] + 2.0 h[mN] + nadh[mN]</t>
+          <t>3snpyr[mN] + h2o[mN] --&gt; h[mN] + pyr[mN] + so3[mN]</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4506,33 +4521,28 @@
         </is>
       </c>
       <c r="E118">
-        <v>1.030045624616805</v>
+        <v>0.9772156277961359</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>8659, 219, 8659, 217</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AASAD3m_Neuron</t>
+          <t>4HBZCOAFm_Neuron</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>L-aminoadipate-semialdehyde dehydrogenase (NADH), mitochondrial Neuron</t>
+          <t>4-hydroxybenzoyl-CoA formation Neuron</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>L2aadp6sa[mN] + h2o[mN] + nad[mN] --&gt; L2aadp[mN] + 2.0 h[mN] + nadh[mN]</t>
+          <t>coa[mN] + coucoa[mN] + h2o[mN] + nad[mN] --&gt; 4hbzcoa[mN] + accoa[mN] + h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4541,33 +4551,28 @@
         </is>
       </c>
       <c r="E119">
-        <v>1.031363286961233</v>
+        <v>1.055077174918819</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>501</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ACACt2m_Neuron</t>
+          <t>4HBZFm_Neuron</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Acetoacetate mitochondrial transport via H+ symport Neuron</t>
+          <t>4-hydroxybenzoate formation Neuron</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>acac[cN] + h[cN] &lt;=&gt; acac[mN] + h[mN]</t>
+          <t>4hbzcoa[mN] + h2o[mN] --&gt; 4hbz[mN] + coa[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4576,33 +4581,28 @@
         </is>
       </c>
       <c r="E120">
-        <v>1.268931092720477</v>
+        <v>1.057999421951196</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ACt2m_Neuron</t>
+          <t>5HOXINDACTOXm_Neuron</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>acetate mitochondrial transport via proton symport Neuron</t>
+          <t>5-Hydroxyindoleacetaldehyde:NAD+ oxidoreductase (mito) Neuron</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ac[cN] + h[cN] &lt;=&gt; ac[mN] + h[mN]</t>
+          <t>5hoxindact[mN] + h2o[mN] + nad[mN] --&gt; 5hoxindoa[mN] + 2.0 h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4611,28 +4611,33 @@
         </is>
       </c>
       <c r="E121">
-        <v>1.205310039285463</v>
+        <v>1.004223735704538</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>8659, 219, 8659, 217</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ADCim_Neuron</t>
+          <t>AASAD3m_Neuron</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Acetoacetate decarboxylation (irreversible), mitochondrial Neuron</t>
+          <t>L-aminoadipate-semialdehyde dehydrogenase (NADH), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>acac[mN] + h[mN] --&gt; acetone[mN] + co2[mN]</t>
+          <t>L2aadp6sa[mN] + h2o[mN] + nad[mN] --&gt; L2aadp[mN] + 2.0 h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4641,28 +4646,33 @@
         </is>
       </c>
       <c r="E122">
-        <v>0.8988422701162797</v>
+        <v>1.005547848737138</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>501</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AGMTm_Neuron</t>
+          <t>ACACt2m_Neuron</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>agmatinase (m) Neuron</t>
+          <t>Acetoacetate mitochondrial transport via H+ symport Neuron</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>agm[mN] + h2o[mN] --&gt; ptrc[mN] + urea[mN]</t>
+          <t>acac[cN] + h[cN] &lt;=&gt; acac[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4671,33 +4681,33 @@
         </is>
       </c>
       <c r="E123">
-        <v>0.5064273141169072</v>
+        <v>1.176435138494635</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>79814.1</t>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AGPRim_Neuron</t>
+          <t>ACt2m_Neuron</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>N-acetyl-g-glutamyl-phosphate reductase, irreversible, mitochondrial Neuron</t>
+          <t>acetate mitochondrial transport via proton symport Neuron</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>acg5p[mN] + h[mN] + nadph[mN] --&gt; acg5sa[mN] + nadp[mN] + pi[mN]</t>
+          <t>ac[cN] + h[cN] &lt;=&gt; ac[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4706,33 +4716,28 @@
         </is>
       </c>
       <c r="E124">
-        <v>0.929548261321155</v>
+        <v>1.146273778567547</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>5832.1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ALASm_Neuron</t>
+          <t>ADCim_Neuron</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5-aminolevulinate synthase Neuron</t>
+          <t>Acetoacetate decarboxylation (irreversible), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>gly[mN] + h[mN] + succoa[mN] --&gt; 5aop[mN] + co2[mN] + coa[mN]</t>
+          <t>acac[mN] + h[mN] --&gt; acetone[mN] + co2[mN]</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4741,33 +4746,28 @@
         </is>
       </c>
       <c r="E125">
-        <v>0.9768750798276893</v>
+        <v>0.873047304778667</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>212, 23464, 211, 211</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ALDD20xm_Neuron</t>
+          <t>AGMTm_Neuron</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase (indole-3-acetaldehyde, NAD), mitochondrial Neuron</t>
+          <t>agmatinase (m) Neuron</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>h2o[mN] + id3acald[mN] + nad[mN] --&gt; 2.0 h[mN] + ind3ac[mN] + nadh[mN]</t>
+          <t>agm[mN] + h2o[mN] --&gt; ptrc[mN] + urea[mN]</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4776,33 +4776,33 @@
         </is>
       </c>
       <c r="E126">
-        <v>1.030045624638138</v>
+        <v>0.4371016481320101</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>219, 8659, 217, 8659</t>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>79814.1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ALDD2xm_Neuron</t>
+          <t>AGPRim_Neuron</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>aldehyde dehydrogenase (acetylaldehyde, NAD), mitochondrial Neuron</t>
+          <t>N-acetyl-g-glutamyl-phosphate reductase, irreversible, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>acald[mN] + h2o[mN] + nad[mN] --&gt; ac[mN] + 2.0 h[mN] + nadh[mN]</t>
+          <t>acg5p[mN] + h[mN] + nadph[mN] --&gt; acg5sa[mN] + nadp[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4811,38 +4811,33 @@
         </is>
       </c>
       <c r="E127">
-        <v>1.043445730371314</v>
+        <v>0.9037925007743476</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>218, 221, 222</t>
+          <t>5832.1</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AOBUTDsm_Neuron</t>
+          <t>ALASm_Neuron</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>L-2-amino-3-oxobutanoate decarboxylation, mitochondrial  (spontaneous) Neuron</t>
+          <t>5-aminolevulinate synthase Neuron</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2aobut[mN] + h[mN] --&gt; aact[mN] + co2[mN]</t>
+          <t>gly[mN] + h[mN] + succoa[mN] --&gt; 5aop[mN] + co2[mN] + coa[mN]</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4851,28 +4846,33 @@
         </is>
       </c>
       <c r="E128">
-        <v>0.9172656962116131</v>
+        <v>0.9460460360791579</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>212, 23464, 211, 211</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ARGDCm_Neuron</t>
+          <t>ALDD20xm_Neuron</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>arginine decarboxylase (m) Neuron</t>
+          <t>aldehyde dehydrogenase (indole-3-acetaldehyde, NAD), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>arg-L[mN] + h[mN] --&gt; agm[mN] + co2[mN]</t>
+          <t>h2o[mN] + id3acald[mN] + nad[mN] --&gt; 2.0 h[mN] + ind3ac[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4881,33 +4881,33 @@
         </is>
       </c>
       <c r="E129">
-        <v>0.9061546622344223</v>
+        <v>1.004223735725871</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>113451.1</t>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>219, 8659, 217, 8659</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ARGtm_Neuron</t>
+          <t>ALDD2xm_Neuron</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>arginine mitochondrial transport via ornithine carrier Neuron</t>
+          <t>aldehyde dehydrogenase (acetylaldehyde, NAD), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>arg-L[cN] + h[mN] &lt;=&gt; arg-L[mN] + h[cN]</t>
+          <t>acald[mN] + h2o[mN] + nad[mN] --&gt; ac[mN] + 2.0 h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="E130">
-        <v>1.206701101483961</v>
+        <v>1.014196542242446</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -4925,24 +4925,29 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>83884, 10166</t>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>218, 221, 222</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ASPNATm_Neuron</t>
+          <t>ALDD2y_Neuron</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>aspartate N-acetyltransferase, mitochondrial Neuron</t>
+          <t>aldehyde dehydrogenase (acetaldehyde, NADP) Neuron</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>accoa[mN] + asp-L[mN] --&gt; Nacasp[mN] + coa[mN] + h[mN]</t>
+          <t>acald[cN] + h2o[cN] + nadp[cN] --&gt; ac[cN] + 2.0 h[cN] + nadph[cN]</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4951,33 +4956,38 @@
         </is>
       </c>
       <c r="E131">
-        <v>1.154126679406443</v>
+        <v>0.1626392384560707</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>218, 222, 221, 219, 223, 8854, 8854, 224, 8854</t>
+        </is>
+      </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>339983</t>
+          <t>218, 221, 222</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BACCLm_Neuron</t>
+          <t>AOBUTDsm_Neuron</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>biotin-[acetyl-CoA-carboxylase] ligase, mitochondrial Neuron</t>
+          <t>L-2-amino-3-oxobutanoate decarboxylation, mitochondrial  (spontaneous) Neuron</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>atp[mN] + btn[mN] + h[mN] --&gt; btamp[mN] + ppi[mN]</t>
+          <t>2aobut[mN] + h[mN] --&gt; aact[mN] + co2[mN]</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4986,33 +4996,28 @@
         </is>
       </c>
       <c r="E132">
-        <v>0.9525451223703005</v>
+        <v>0.8850628979912222</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>3141</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BAMPPALDOXm_Neuron</t>
+          <t>ARGDCm_Neuron</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>beta-Aminopropion aldehyde:NAD+ oxidoreductase (m) Neuron</t>
+          <t>arginine decarboxylase (m) Neuron</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>bamppald[mN] + h2o[mN] + nad[mN] --&gt; ala-B[mN] + 2.0 h[mN] + nadh[mN]</t>
+          <t>arg-L[mN] + h[mN] --&gt; agm[mN] + co2[mN]</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5021,33 +5026,33 @@
         </is>
       </c>
       <c r="E133">
-        <v>1.037755618903683</v>
+        <v>0.880501669119191</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>8659, 217, 8659, 219</t>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>113451.1</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BDHm_Neuron</t>
+          <t>ARGtm_Neuron</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>(R)-3-Hydroxybutanoate:NAD+ oxidoreductase Neuron</t>
+          <t>arginine mitochondrial transport via ornithine carrier Neuron</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>bhb[mN] + nad[mN] &lt;=&gt; acac[mN] + h[mN] + nadh[mN]</t>
+          <t>arg-L[cN] + h[mN] &lt;=&gt; arg-L[mN] + h[cN]</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5056,33 +5061,33 @@
         </is>
       </c>
       <c r="E134">
-        <v>0.9023846667217646</v>
+        <v>1.149804145562827</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>622.2, 622.3, 622.1</t>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>83884, 10166</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BETALDHxm_Neuron</t>
+          <t>ASPNATm_Neuron</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>betaine-aldehyde dehydrogenase, mitochondrial Neuron</t>
+          <t>aspartate N-acetyltransferase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>betald[mN] + h2o[mN] + nad[mN] --&gt; glyb[mN] + 2.0 h[mN] + nadh[mN]</t>
+          <t>accoa[mN] + asp-L[mN] --&gt; Nacasp[mN] + coa[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5091,7 +5096,7 @@
         </is>
       </c>
       <c r="E135">
-        <v>1.030045624650096</v>
+        <v>1.080213873951603</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -5100,24 +5105,24 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>339983</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BHBtm_Neuron</t>
+          <t>BACCLm_Neuron</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>(R)-3-Hydroxybutanoate mitochondrial transport via H+ symport Neuron</t>
+          <t>biotin-[acetyl-CoA-carboxylase] ligase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>bhb[cN] + h[cN] &lt;=&gt; bhb[mN] + h[mN]</t>
+          <t>atp[mN] + btn[mN] + h[mN] --&gt; btamp[mN] + ppi[mN]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5126,28 +5131,33 @@
         </is>
       </c>
       <c r="E136">
-        <v>1.192028412989244</v>
+        <v>0.9158577906410814</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>3141</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BTNPLm_Neuron</t>
+          <t>BAMPPALDOXm_Neuron</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>holocarboxylase synthestase (biotin protein ligase), mitochondrial Neuron</t>
+          <t>beta-Aminopropion aldehyde:NAD+ oxidoreductase (m) Neuron</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>apoC-Lys[mN] + btamp[mN] --&gt; amp[mN] + apoC-Lys_btn[mN] + h[mN]</t>
+          <t>bamppald[mN] + h2o[mN] + nad[mN] --&gt; ala-B[mN] + 2.0 h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5156,33 +5166,33 @@
         </is>
       </c>
       <c r="E137">
-        <v>0.8900226901093473</v>
+        <v>1.010938366098271</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>3141.1</t>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>8659, 217, 8659, 219</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BTNt2m_Neuron</t>
+          <t>BDHm_Neuron</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Biotin reversible transport via proton symport, mitochondria Neuron</t>
+          <t>(R)-3-Hydroxybutanoate:NAD+ oxidoreductase Neuron</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>btn[cN] + h[cN] &lt;=&gt; btn[mN] + h[mN]</t>
+          <t>bhb[mN] + nad[mN] &lt;=&gt; acac[mN] + h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5191,33 +5201,33 @@
         </is>
       </c>
       <c r="E138">
-        <v>1.205640024901121</v>
+        <v>0.8766046601130639</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>6566</t>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>622.2, 622.3, 622.1</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CBLATm_Neuron</t>
+          <t>BETALDHxm_Neuron</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>cob(I)alamin adenosyltransferase, mitochondrial Neuron</t>
+          <t>betaine-aldehyde dehydrogenase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>atp[mN] + cbl1[mN] + h[mN] &lt;=&gt; adocbl[mN] + pppi[mN]</t>
+          <t>betald[mN] + h2o[mN] + nad[mN] --&gt; glyb[mN] + 2.0 h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5226,7 +5236,7 @@
         </is>
       </c>
       <c r="E139">
-        <v>0.9141256034726056</v>
+        <v>1.004223735737829</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -5235,24 +5245,24 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>166785.1</t>
+          <t>501</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CDSm_Neuron</t>
+          <t>BHBtm_Neuron</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>phosphatidate cytidylyltransferase Neuron</t>
+          <t>(R)-3-Hydroxybutanoate mitochondrial transport via H+ symport Neuron</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ctp[mN] + h[mN] + pa_hs[mN] --&gt; cdpdag_hs[mN] + ppi[mN]</t>
+          <t>bhb[cN] + h[cN] &lt;=&gt; bhb[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5261,33 +5271,28 @@
         </is>
       </c>
       <c r="E140">
-        <v>0.9496280075370881</v>
+        <v>1.135726263730199</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>1040.1, 8760.1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>COQ5m_Neuron</t>
+          <t>BTNPLm_Neuron</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ubiquinone biosynthesis methyltransferase COQ5 Neuron</t>
+          <t>holocarboxylase synthestase (biotin protein ligase), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2dp6mobq[mN] + amet[mN] --&gt; 2dp6mobq_me[mN] + ahcys[mN] + h[mN]</t>
+          <t>apoC-Lys[mN] + btamp[mN] --&gt; amp[mN] + apoC-Lys_btn[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5296,7 +5301,7 @@
         </is>
       </c>
       <c r="E141">
-        <v>0.8673354115121736</v>
+        <v>0.8646834072502217</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -5305,24 +5310,24 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>51805</t>
+          <t>3141.1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>COQ7m_Neuron</t>
+          <t>BTNt2m_Neuron</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ubiquinone biosynthesis COQ7 Neuron</t>
+          <t>Biotin reversible transport via proton symport, mitochondria Neuron</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2dp6mobq_me[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 2dpmhobq[mN] + h2o[mN] + nadp[mN]</t>
+          <t>btn[cN] + h[cN] &lt;=&gt; btn[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5331,7 +5336,7 @@
         </is>
       </c>
       <c r="E142">
-        <v>1.002251481418806</v>
+        <v>1.148160917055432</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -5340,29 +5345,24 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>10229</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>10229</t>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CYANSTm_Neuron</t>
+          <t>CBLATm_Neuron</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Cyanide sulfurtransferase, mitochondrial Neuron</t>
+          <t>cob(I)alamin adenosyltransferase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>cyan[mN] + tsul[mN] --&gt; h[mN] + so3[mN] + tcynt[mN]</t>
+          <t>atp[mN] + cbl1[mN] + h[mN] &lt;=&gt; adocbl[mN] + pppi[mN]</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5371,28 +5371,33 @@
         </is>
       </c>
       <c r="E143">
-        <v>1.18313551156658</v>
+        <v>0.8883880145863057</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>166785.1</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>D-LACtm_Neuron</t>
+          <t>CDSm_Neuron</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>D-lactate transport, mitochondrial Neuron</t>
+          <t>phosphatidate cytidylyltransferase Neuron</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>h[cN] + lac-D[cN] &lt;=&gt; h[mN] + lac-D[mN]</t>
+          <t>ctp[mN] + h[mN] + pa_hs[mN] --&gt; cdpdag_hs[mN] + ppi[mN]</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5401,33 +5406,33 @@
         </is>
       </c>
       <c r="E144">
-        <v>1.192028412992427</v>
+        <v>0.8982446225530809</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>6566</t>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>1040.1, 8760.1</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DGNSKm_Neuron</t>
+          <t>COQ5m_Neuron</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>deoxyguanosine kinase Neuron</t>
+          <t>Ubiquinone biosynthesis methyltransferase COQ5 Neuron</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>atp[mN] + dgsn[mN] --&gt; adp[mN] + dgmp[mN] + h[mN]</t>
+          <t>2dp6mobq[mN] + amet[mN] --&gt; 2dp6mobq_me[mN] + ahcys[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5436,38 +5441,33 @@
         </is>
       </c>
       <c r="E145">
-        <v>1.069892500076772</v>
+        <v>0.8415175750998581</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>1716, 1716, 1716, 1716, 1716</t>
-        </is>
-      </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>51805</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DHDPBMTm_Neuron</t>
+          <t>COQ7m_Neuron</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>dihydroxydecaprenylbenzoate methyltransferase Neuron</t>
+          <t>Ubiquinone biosynthesis COQ7 Neuron</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>3dpdhb[mN] + amet[mN] --&gt; 3dpdhb_me[mN] + ahcys[mN] + h[mN]</t>
+          <t>2dp6mobq_me[mN] + h[mN] + nadph[mN] + o2[mN] --&gt; 2dpmhobq[mN] + h2o[mN] + nadp[mN]</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5476,33 +5476,38 @@
         </is>
       </c>
       <c r="E146">
-        <v>0.8573704891748894</v>
+        <v>0.9762888201810898</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>10229</t>
+        </is>
+      </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>51805.1</t>
+          <t>10229</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DMGDHm_Neuron</t>
+          <t>CYANSTm_Neuron</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>dimethylglycine dehydrogenase, mitochondrial Neuron</t>
+          <t>Cyanide sulfurtransferase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>dmgly[mN] + fad[mN] + h2o[mN] --&gt; fadh2[mN] + fald[mN] + sarcs[mN]</t>
+          <t>cyan[mN] + tsul[mN] --&gt; h[mN] + so3[mN] + tcynt[mN]</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5511,33 +5516,28 @@
         </is>
       </c>
       <c r="E147">
-        <v>0.6748743233452034</v>
+        <v>1.119255911708912</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>29958.1</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DPHMBDCm_Neuron</t>
+          <t>D-LACtm_Neuron</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>3-Decaprenyl-4-hydroxy-5-methoxybenzoate  decarboxylation Neuron</t>
+          <t>D-lactate transport, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>3dpdhb_me[mN] + h[mN] --&gt; 2dp6mep[mN] + co2[mN]</t>
+          <t>h[cN] + lac-D[cN] &lt;=&gt; h[mN] + lac-D[mN]</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5546,28 +5546,33 @@
         </is>
       </c>
       <c r="E148">
-        <v>0.9066590000202663</v>
+        <v>1.135726263733382</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>6566</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FCLTm_Neuron</t>
+          <t>DGNSKm_Neuron</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Ferrochelatase, mitochondrial Neuron</t>
+          <t>deoxyguanosine kinase Neuron</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>fe2[mN] + ppp9[mN] --&gt; 2.0 h[mN] + pheme[mN]</t>
+          <t>atp[mN] + dgsn[mN] --&gt; adp[mN] + dgmp[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5576,7 +5581,7 @@
         </is>
       </c>
       <c r="E149">
-        <v>0.9822371539696616</v>
+        <v>1.027358259467011</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -5585,24 +5590,29 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2235, 2235</t>
+          <t>1716, 1716, 1716, 1716, 1716</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>1716</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FE2tm_Neuron</t>
+          <t>DHDPBMTm_Neuron</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>iron (II) transport Neuron</t>
+          <t>dihydroxydecaprenylbenzoate methyltransferase Neuron</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>fe2[cN] + h[cN] --&gt; fe2[mN] + h[mN]</t>
+          <t>3dpdhb[mN] + amet[mN] --&gt; 3dpdhb_me[mN] + ahcys[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5611,28 +5621,33 @@
         </is>
       </c>
       <c r="E150">
-        <v>1.239692866059981</v>
+        <v>0.8314946217463155</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>51805.1</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FPGS2m_Neuron</t>
+          <t>DMGDHm_Neuron</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase, mitochondrial Neuron</t>
+          <t>dimethylglycine dehydrogenase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>5thf[mN] + atp[mN] + glu-L[mN] --&gt; 6thf[mN] + adp[mN] + h[mN] + pi[mN]</t>
+          <t>dmgly[mN] + fad[mN] + h2o[mN] --&gt; fadh2[mN] + fald[mN] + sarcs[mN]</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5641,33 +5656,33 @@
         </is>
       </c>
       <c r="E151">
-        <v>1.02187705661409</v>
+        <v>0.5391445799508986</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>2356</t>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>29958.1</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FPGS3m_Neuron</t>
+          <t>DPHMBDCm_Neuron</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase, mitochondrial Neuron</t>
+          <t>3-Decaprenyl-4-hydroxy-5-methoxybenzoate  decarboxylation Neuron</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>6thf[mN] + atp[mN] + glu-L[mN] --&gt; 7thf[mN] + adp[mN] + h[mN] + pi[mN]</t>
+          <t>3dpdhb_me[mN] + h[mN] --&gt; 2dp6mep[mN] + co2[mN]</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5676,33 +5691,28 @@
         </is>
       </c>
       <c r="E152">
-        <v>1.083312607590504</v>
+        <v>0.8808910217734993</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FPGS4m_Neuron</t>
+          <t>FCLTm_Neuron</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase (DHF), mitochondrial Neuron</t>
+          <t>Ferrochelatase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>4.0 atp[mN] + dhf[mN] + 4.0 glu-L[mN] --&gt; 5dhf[mN] + 4.0 adp[mN] + 4.0 h[mN] + 4.0 pi[mN]</t>
+          <t>fe2[mN] + ppp9[mN] --&gt; 2.0 h[mN] + pheme[mN]</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5711,7 +5721,7 @@
         </is>
       </c>
       <c r="E153">
-        <v>1.100953070373863</v>
+        <v>0.9223181938292777</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -5720,24 +5730,24 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2235, 2235</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FPGS5m_Neuron</t>
+          <t>FE2tm_Neuron</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>folylpolyglutamate  synthetase (DHF), mitochondrial Neuron</t>
+          <t>iron (II) transport Neuron</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5dhf[mN] + atp[mN] + glu-L[mN] --&gt; 6dhf[mN] + adp[mN] + h[mN] + pi[mN]</t>
+          <t>fe2[cN] + h[cN] --&gt; fe2[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5746,33 +5756,28 @@
         </is>
       </c>
       <c r="E154">
-        <v>1.00388402316096</v>
+        <v>1.178062126428275</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FPGS6m_Neuron</t>
+          <t>FPGS2m_Neuron</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase (DHF), mitochondrial Neuron</t>
+          <t>folylpolyglutamate synthetase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>6dhf[mN] + atp[mN] + glu-L[mN] --&gt; 7dhf[mN] + adp[mN] + h[mN] + pi[mN]</t>
+          <t>5thf[mN] + atp[mN] + glu-L[mN] --&gt; 6thf[mN] + adp[mN] + h[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5781,7 +5786,7 @@
         </is>
       </c>
       <c r="E155">
-        <v>1.083312325180144</v>
+        <v>0.994737972584822</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -5797,17 +5802,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FPGS7m_Neuron</t>
+          <t>FPGS3m_Neuron</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Neuron</t>
+          <t>folylpolyglutamate synthetase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>10fthf[mN] + 4.0 atp[mN] + 4.0 glu-L[mN] --&gt; 10fthf5glu[mN] + 4.0 adp[mN] + 4.0 h[mN] + 4.0 pi[mN]</t>
+          <t>6thf[mN] + atp[mN] + glu-L[mN] --&gt; 7thf[mN] + adp[mN] + h[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5816,7 +5821,7 @@
         </is>
       </c>
       <c r="E156">
-        <v>1.007194042920548</v>
+        <v>1.024009924483034</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -5832,17 +5837,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FPGS8m_Neuron</t>
+          <t>FPGS4m_Neuron</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Neuron</t>
+          <t>folylpolyglutamate synthetase (DHF), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>10fthf5glu[mN] + atp[mN] + glu-L[mN] --&gt; 10fthf6glu[mN] + adp[mN] + h[mN] + pi[mN]</t>
+          <t>4.0 atp[mN] + dhf[mN] + 4.0 glu-L[mN] --&gt; 5dhf[mN] + 4.0 adp[mN] + 4.0 h[mN] + 4.0 pi[mN]</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5851,7 +5856,7 @@
         </is>
       </c>
       <c r="E157">
-        <v>1.02184753823745</v>
+        <v>1.041650422940253</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -5867,17 +5872,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FPGS9m_Neuron</t>
+          <t>FPGS5m_Neuron</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Neuron</t>
+          <t>folylpolyglutamate  synthetase (DHF), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>10fthf6glu[mN] + atp[mN] + glu-L[mN] --&gt; 10fthf7glu[mN] + adp[mN] + h[mN] + pi[mN]</t>
+          <t>5dhf[mN] + atp[mN] + glu-L[mN] --&gt; 6dhf[mN] + adp[mN] + h[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5886,7 +5891,7 @@
         </is>
       </c>
       <c r="E158">
-        <v>1.083312607305842</v>
+        <v>0.9767521309914841</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -5902,17 +5907,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FPGSm_Neuron</t>
+          <t>FPGS6m_Neuron</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>folylpolyglutamate synthetase, mitochondrial Neuron</t>
+          <t>folylpolyglutamate synthetase (DHF), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>4.0 atp[mN] + 4.0 glu-L[mN] + thf[mN] --&gt; 5thf[mN] + 4.0 adp[mN] + 4.0 h[mN] + 4.0 pi[mN]</t>
+          <t>6dhf[mN] + atp[mN] + glu-L[mN] --&gt; 7dhf[mN] + adp[mN] + h[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5921,7 +5926,7 @@
         </is>
       </c>
       <c r="E159">
-        <v>1.028588624378584</v>
+        <v>1.024009642072674</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -5937,17 +5942,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>G5SDym_Neuron</t>
+          <t>FPGS7m_Neuron</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>glutamate-5-semialdehyde dehydrogenase (m) Neuron</t>
+          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>glu5p[mN] + h[mN] + nadph[mN] --&gt; glu5sa[mN] + nadp[mN] + pi[mN]</t>
+          <t>10fthf[mN] + 4.0 atp[mN] + 4.0 glu-L[mN] --&gt; 10fthf5glu[mN] + 4.0 adp[mN] + 4.0 h[mN] + 4.0 pi[mN]</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5956,33 +5961,33 @@
         </is>
       </c>
       <c r="E160">
-        <v>0.909087619190053</v>
+        <v>0.9800937653805627</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>5832.1</t>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>GCC2am_Neuron</t>
+          <t>FPGS8m_Neuron</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>glycine-cleavage complex (lipoamide), mitochondrial Neuron</t>
+          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>gly[mN] + h[mN] + lpam[mN] &lt;=&gt; alpam[mN] + co2[mN]</t>
+          <t>10fthf5glu[mN] + atp[mN] + glu-L[mN] --&gt; 10fthf6glu[mN] + adp[mN] + h[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5991,33 +5996,33 @@
         </is>
       </c>
       <c r="E161">
-        <v>0.9149048922280091</v>
+        <v>0.9947156103941123</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>275.1, 1738.1, 2731.1, 2653.1</t>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>GCC2cm_Neuron</t>
+          <t>FPGS9m_Neuron</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>glycine-cleavage complex (lipoamide), mitochondrial Neuron</t>
+          <t>folylpolyglutamate synthetase (10fthf), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>dhlam[mN] + nad[mN] &lt;=&gt; h[mN] + lpam[mN] + nadh[mN]</t>
+          <t>10fthf6glu[mN] + atp[mN] + glu-L[mN] --&gt; 10fthf7glu[mN] + adp[mN] + h[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6026,33 +6031,33 @@
         </is>
       </c>
       <c r="E162">
-        <v>0.9010866773415009</v>
+        <v>1.024009924198372</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>275.1, 1738.1, 2731.1, 2653.1</t>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>GCCam_Neuron</t>
+          <t>FPGSm_Neuron</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>glycine-cleavage complex (lipoylprotein), mitochondrial Neuron</t>
+          <t>folylpolyglutamate synthetase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>gly[mN] + h[mN] + lpro[mN] &lt;=&gt; alpro[mN] + co2[mN]</t>
+          <t>4.0 atp[mN] + 4.0 glu-L[mN] + thf[mN] --&gt; 5thf[mN] + 4.0 adp[mN] + 4.0 h[mN] + 4.0 pi[mN]</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6061,33 +6066,33 @@
         </is>
       </c>
       <c r="E163">
-        <v>0.9149048922203875</v>
+        <v>0.9988930637285749</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>275.1, 1738.1, 2731.1, 2653.1</t>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>2356</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GCCcm_Neuron</t>
+          <t>G5SDym_Neuron</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>glycine-cleavage complex (lipoylprotein), mitochondrial Neuron</t>
+          <t>glutamate-5-semialdehyde dehydrogenase (m) Neuron</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>dhlpro[mN] + nad[mN] &lt;=&gt; h[mN] + lpro[mN] + nadh[mN]</t>
+          <t>glu5p[mN] + h[mN] + nadph[mN] --&gt; glu5sa[mN] + nadp[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6096,7 +6101,7 @@
         </is>
       </c>
       <c r="E164">
-        <v>0.9010866773396997</v>
+        <v>0.8833170128704728</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -6105,24 +6110,24 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>275.1, 1738.1, 2731.1, 2653.1</t>
+          <t>5832.1</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GHMT3m_Neuron</t>
+          <t>GCC2am_Neuron</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>glycine hydroxymethyltransferase, mitochondrial Neuron</t>
+          <t>glycine-cleavage complex (lipoamide), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>3htmelys[mN] + h[mN] --&gt; 4tmeabut[mN] + gly[mN]</t>
+          <t>gly[mN] + h[mN] + lpam[mN] &lt;=&gt; alpam[mN] + co2[mN]</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6131,7 +6136,7 @@
         </is>
       </c>
       <c r="E165">
-        <v>0.8697961998978099</v>
+        <v>0.8891269621819794</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -6140,24 +6145,24 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>6472.1</t>
+          <t>275.1, 1738.1, 2731.1, 2653.1</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>GLACOm_Neuron</t>
+          <t>GCC2cm_Neuron</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>D-Glucuronolactone:NAD+ oxidoreductase, mitochondrial Neuron</t>
+          <t>glycine-cleavage complex (lipoamide), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>glac[mN] + 2.0 h2o[mN] + nad[mN] --&gt; glcr[mN] + 3.0 h[mN] + nadh[mN]</t>
+          <t>dhlam[mN] + nad[mN] &lt;=&gt; h[mN] + lpam[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6166,33 +6171,33 @@
         </is>
       </c>
       <c r="E166">
-        <v>1.030045624604689</v>
+        <v>0.8753065262888761</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>8659, 217, 8659, 219</t>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>275.1, 1738.1, 2731.1, 2653.1</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>GLUDxm_Neuron</t>
+          <t>GCCam_Neuron</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>glutamate dehydrogenase (NAD) (mitochondrial) Neuron</t>
+          <t>glycine-cleavage complex (lipoylprotein), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>glu-L[mN] + h2o[mN] + nad[mN] &lt;=&gt; akg[mN] + h[mN] + nadh[mN] + nh4[mN]</t>
+          <t>gly[mN] + h[mN] + lpro[mN] &lt;=&gt; alpro[mN] + co2[mN]</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6201,33 +6206,33 @@
         </is>
       </c>
       <c r="E167">
-        <v>1.066692522943454</v>
+        <v>0.8891269621743578</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>2747, 2746</t>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>275.1, 1738.1, 2731.1, 2653.1</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>GLUTCOADHm_Neuron</t>
+          <t>GCCcm_Neuron</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>glutaryl-CoA dehydrogenase (mitochondria) Neuron</t>
+          <t>glycine-cleavage complex (lipoylprotein), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>fad[mN] + glutcoa[mN] + h[mN] --&gt; b2coa[mN] + co2[mN] + fadh2[mN]</t>
+          <t>dhlpro[mN] + nad[mN] &lt;=&gt; h[mN] + lpro[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6236,33 +6241,33 @@
         </is>
       </c>
       <c r="E168">
-        <v>1.116651474851956</v>
+        <v>0.8753065262870747</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>2639, 2639</t>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>275.1, 1738.1, 2731.1, 2653.1</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HACD1m_Neuron</t>
+          <t>GHMT3m_Neuron</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>3-hydroxyacyl-CoA dehydrogenase (acetoacetyl-CoA) (mitochondria) Neuron</t>
+          <t>glycine hydroxymethyltransferase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>aacoa[mN] + h[mN] + nadh[mN] &lt;=&gt; 3hbcoa[mN] + nad[mN]</t>
+          <t>3htmelys[mN] + h[mN] --&gt; 4tmeabut[mN] + gly[mN]</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6271,7 +6276,7 @@
         </is>
       </c>
       <c r="E169">
-        <v>0.9132285238906638</v>
+        <v>0.8441006666241982</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -6280,24 +6285,24 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>3028.1, 3033.1, 3030.1, 3032.1</t>
+          <t>6472.1</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HACD9m_Neuron</t>
+          <t>GLACOm_Neuron</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>3-hydroxyacyl-CoA dehydrogenase (2-Methylacetoacetyl-CoA), mitochondrial Neuron</t>
+          <t>D-Glucuronolactone:NAD+ oxidoreductase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3hmbcoa[mN] + nad[mN] &lt;=&gt; 2maacoa[mN] + h[mN] + nadh[mN]</t>
+          <t>glac[mN] + 2.0 h2o[mN] + nad[mN] --&gt; glcr[mN] + 3.0 h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6306,33 +6311,33 @@
         </is>
       </c>
       <c r="E170">
-        <v>0.9122325868842236</v>
+        <v>1.004223735692422</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>3028.1, 1962.1, 3033.1</t>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>8659, 217, 8659, 219</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HCO3Em_Neuron</t>
+          <t>GLUDxm_Neuron</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>HCO3 equilibration reaction Neuron</t>
+          <t>glutamate dehydrogenase (NAD) (mitochondrial) Neuron</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>co2[mN] + h2o[mN] &lt;=&gt; h[mN] + hco3[mN]</t>
+          <t>glu-L[mN] + h2o[mN] + nad[mN] &lt;=&gt; akg[mN] + h[mN] + nadh[mN] + nh4[mN]</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6341,28 +6346,33 @@
         </is>
       </c>
       <c r="E171">
-        <v>1.046393042713392</v>
+        <v>1.040533770653566</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>2747, 2746</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HPROxm_Neuron</t>
+          <t>GLUTCOADHm_Neuron</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>L-hydroxyproline dehydrogenase (NAD), mitochondrial Neuron</t>
+          <t>glutaryl-CoA dehydrogenase (mitochondria) Neuron</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>4hpro-LT[mN] + nad[mN] --&gt; 1p3h5c[mN] + 2.0 h[mN] + nadh[mN]</t>
+          <t>fad[mN] + glutcoa[mN] + h[mN] --&gt; b2coa[mN] + co2[mN] + fadh2[mN]</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6371,28 +6381,33 @@
         </is>
       </c>
       <c r="E172">
-        <v>0.9506501492538151</v>
+        <v>1.066112372638301</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>2639, 2639</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>IMACTD_m_Neuron</t>
+          <t>HACD1m_Neuron</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Imidazole acetaldeyde dehydrogenase (mito) Neuron</t>
+          <t>3-hydroxyacyl-CoA dehydrogenase (acetoacetyl-CoA) (mitochondria) Neuron</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>h2o[mN] + im4act[mN] + nad[mN] --&gt; 2.0 h[mN] + im4ac[mN] + nadh[mN]</t>
+          <t>aacoa[mN] + h[mN] + nadh[mN] &lt;=&gt; 3hbcoa[mN] + nad[mN]</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6401,33 +6416,33 @@
         </is>
       </c>
       <c r="E173">
-        <v>1.030045624608469</v>
+        <v>0.8874904460819855</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>219, 8659, 217, 8659</t>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>3028.1, 3033.1, 3030.1, 3032.1</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LCADim_Neuron</t>
+          <t>HACD9m_Neuron</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>lactaldehyde dehydrogenase, mitochondrial Neuron</t>
+          <t>3-hydroxyacyl-CoA dehydrogenase (2-Methylacetoacetyl-CoA), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>h2o[mN] + lald-L[mN] + nad[mN] --&gt; 2.0 h[mN] + lac-L[mN] + nadh[mN]</t>
+          <t>3hmbcoa[mN] + nad[mN] &lt;=&gt; 2maacoa[mN] + h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6436,33 +6451,33 @@
         </is>
       </c>
       <c r="E174">
-        <v>1.030045624596188</v>
+        <v>0.8864912447873969</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>4329, 7915, 8659, 5832, 217, 7915, 219, 8659</t>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>3028.1, 1962.1, 3033.1</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LDH_Lm_Neuron</t>
+          <t>HCO3Em_Neuron</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>L-lactate dehydrogenase Neuron</t>
+          <t>HCO3 equilibration reaction Neuron</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>lac-L[mN] + nad[mN] --&gt; h[mN] + nadh[mN] + pyr[mN]</t>
+          <t>co2[mN] + h2o[mN] &lt;=&gt; h[mN] + hco3[mN]</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6471,33 +6486,28 @@
         </is>
       </c>
       <c r="E175">
-        <v>0.9115702276871126</v>
+        <v>1.019760808940389</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>3939.1, 3945.1, 197257.1</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>LYStm_Neuron</t>
+          <t>HPROxm_Neuron</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Lysine mitochondrial transport via ornithine carrier Neuron</t>
+          <t>L-hydroxyproline dehydrogenase (NAD), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>h[mN] + lys-L[cN] &lt;=&gt; h[cN] + lys-L[mN]</t>
+          <t>4hpro-LT[mN] + nad[mN] --&gt; 1p3h5c[mN] + 2.0 h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6506,33 +6516,28 @@
         </is>
       </c>
       <c r="E176">
-        <v>1.220516179933306</v>
+        <v>0.9073534840092509</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
           <t>Central</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>83884, 10166</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MCCCrm_Neuron</t>
+          <t>IMACTD_m_Neuron</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>methylcrotonoyl-CoA carboxylase, mitochondrial Neuron</t>
+          <t>Imidazole acetaldeyde dehydrogenase (mito) Neuron</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3mb2coa[mN] + atp[mN] + hco3[mN] &lt;=&gt; 3mgcoa[mN] + adp[mN] + h[mN] + pi[mN]</t>
+          <t>h2o[mN] + im4act[mN] + nad[mN] --&gt; 2.0 h[mN] + im4ac[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6541,33 +6546,33 @@
         </is>
       </c>
       <c r="E177">
-        <v>0.9688437778573004</v>
+        <v>1.004223735696202</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>56922.1, 64087.1</t>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>219, 8659, 217, 8659</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MTHFCm_Neuron</t>
+          <t>LCADim_Neuron</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>methenyltetrahydrifikate cyclohydrolase, mitochondrial Neuron</t>
+          <t>lactaldehyde dehydrogenase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>h2o[mN] + methf[mN] &lt;=&gt; 10fthf[mN] + h[mN]</t>
+          <t>h2o[mN] + lald-L[mN] + nad[mN] --&gt; 2.0 h[mN] + lac-L[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6576,7 +6581,7 @@
         </is>
       </c>
       <c r="E178">
-        <v>1.025335308650504</v>
+        <v>1.004223735683921</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -6585,24 +6590,24 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>25902, 10797</t>
+          <t>4329, 7915, 8659, 5832, 217, 7915, 219, 8659</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>NABTNOm_Neuron</t>
+          <t>LDH_Lm_Neuron</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>N4-Acetylaminobutanal:NAD+ oxidoreductase (m) Neuron</t>
+          <t>L-lactate dehydrogenase Neuron</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>h2o[mN] + n4abutn[mN] + nad[mN] --&gt; 4aabutn[mN] + 2.0 h[mN] + nadh[mN]</t>
+          <t>lac-L[mN] + nad[mN] --&gt; h[mN] + nadh[mN] + pyr[mN]</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6611,33 +6616,33 @@
         </is>
       </c>
       <c r="E179">
-        <v>1.03004562459856</v>
+        <v>0.8858025588327935</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>217, 8659, 219</t>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>3939.1, 3945.1, 197257.1</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>NNATm_Neuron</t>
+          <t>LYStm_Neuron</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>nicotinate-nucleotide adenylyltransferase, mitochondrial Neuron</t>
+          <t>Lysine mitochondrial transport via ornithine carrier Neuron</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>atp[mN] + h[mN] + nicrnt[mN] --&gt; dnad[mN] + ppi[mN]</t>
+          <t>h[mN] + lys-L[cN] &lt;=&gt; h[cN] + lys-L[mN]</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6646,33 +6651,33 @@
         </is>
       </c>
       <c r="E180">
-        <v>0.9419158549387781</v>
+        <v>1.162334707996002</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>349565.1</t>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>83884, 10166</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORNt3m_Neuron</t>
+          <t>MCCCrm_Neuron</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ornithine mitochondrial transport via proton antiport Neuron</t>
+          <t>methylcrotonoyl-CoA carboxylase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>h[cN] + orn[mN] &lt;=&gt; h[mN] + orn[cN]</t>
+          <t>3mb2coa[mN] + atp[mN] + hco3[mN] &lt;=&gt; 3mgcoa[mN] + adp[mN] + h[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6681,33 +6686,33 @@
         </is>
       </c>
       <c r="E181">
-        <v>1.200510366529718</v>
+        <v>0.9408286731137693</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>83884, 10166</t>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>56922.1, 64087.1</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORNt4m_Neuron</t>
+          <t>ME2m_Neuron</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ornithine mitochondrial transport exchange with citruline Neuron</t>
+          <t>malic enzyme (NADP), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>citr-L[cN] + h[cN] + orn[mN] &lt;=&gt; citr-L[mN] + h[mN] + orn[cN]</t>
+          <t>mal-L[mN] + nadp[mN] --&gt; co2[mN] + nadph[mN] + pyr[mN]</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6716,7 +6721,7 @@
         </is>
       </c>
       <c r="E182">
-        <v>1.237700448270319</v>
+        <v>0.1156110210773948</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -6725,24 +6730,24 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>10166, 83884</t>
+          <t>4200, 10873</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PETOHMm_hs_Neuron</t>
+          <t>MTHFCm_Neuron</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>phosphatidylethanolamine N-methyltransferase Neuron</t>
+          <t>methenyltetrahydrifikate cyclohydrolase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>3.0 amet[mN] + pe_hs[mN] --&gt; 3.0 ahcys[mN] + 3.0 h[mN] + pchol_hs[mN]</t>
+          <t>h2o[mN] + methf[mN] &lt;=&gt; 10fthf[mN] + h[mN]</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6751,7 +6756,7 @@
         </is>
       </c>
       <c r="E183">
-        <v>0.8761124292929451</v>
+        <v>0.9978601155259789</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -6760,29 +6765,24 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>10400, 10400, 10400</t>
-        </is>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>10400</t>
+          <t>25902, 10797</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PHCHGSm_Neuron</t>
+          <t>NABTNOm_Neuron</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>L-1-Pyrroline-3-hydroxy-5-carboxylate spontaneous conversion to L-4-Hydroxyglutamate semialdehyde, mitochondrial Neuron</t>
+          <t>N4-Acetylaminobutanal:NAD+ oxidoreductase (m) Neuron</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1p3h5c[mN] + h2o[mN] + h[mN] &lt;=&gt; 4hglusa[mN]</t>
+          <t>h2o[mN] + n4abutn[mN] + nad[mN] --&gt; 4aabutn[mN] + 2.0 h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6791,244 +6791,244 @@
         </is>
       </c>
       <c r="E184">
-        <v>1.010440747716373</v>
+        <v>1.004223735686293</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>217, 8659, 219</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>NNATm_Neuron</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>nicotinate-nucleotide adenylyltransferase, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>atp[mN] + h[mN] + nicrnt[mN] --&gt; dnad[mN] + ppi[mN]</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>0.905381123229093</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>349565.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>ORNt3m_Neuron</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ornithine mitochondrial transport via proton antiport Neuron</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>h[cN] + orn[mN] &lt;=&gt; h[mN] + orn[cN]</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>1.143978636887156</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>83884, 10166</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>ORNt4m_Neuron</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>ornithine mitochondrial transport exchange with citruline Neuron</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>citr-L[cN] + h[cN] + orn[mN] &lt;=&gt; citr-L[mN] + h[mN] + orn[cN]</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>1.166178356313723</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>10166, 83884</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PETOHMm_hs_Neuron</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>phosphatidylethanolamine N-methyltransferase Neuron</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>3.0 amet[mN] + pe_hs[mN] --&gt; 3.0 ahcys[mN] + 3.0 h[mN] + pchol_hs[mN]</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>0.848022349060108</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>10400, 10400, 10400</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>10400</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PHCHGSm_Neuron</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>L-1-Pyrroline-3-hydroxy-5-carboxylate spontaneous conversion to L-4-Hydroxyglutamate semialdehyde, mitochondrial Neuron</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1p3h5c[mN] + h2o[mN] + h[mN] &lt;=&gt; 4hglusa[mN]</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E189">
+        <v>0.9846893787791854</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>PPA2m_Neuron</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>inorganic triphosphatase, mitochondrial Neuron</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>h2o[mN] + pppi[mN] --&gt; h[mN] + pi[mN] + ppi[mN]</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Neuron</t>
-        </is>
-      </c>
-      <c r="E185">
-        <v>1.093979420172405</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr">
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E190">
+        <v>1.029415899391298</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
         <is>
           <t xml:space="preserve">27068, 5464, 64077
 </t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>PPCOACm_Neuron</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Propionyl-CoA carboxylase, mitochondrial Neuron</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>atp[mN] + hco3[mN] + ppcoa[mN] --&gt; adp[mN] + h[mN] + mmcoa-S[mN] + pi[mN]</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Neuron</t>
-        </is>
-      </c>
-      <c r="E186">
-        <v>0.9757869489368495</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>5096, 5095</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>5095, 5096</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>PRO1xm_Neuron</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>proline oxidase (NAD), mitochondrial Neuron</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>nad[mN] + pro-L[mN] --&gt; 1pyr5c[mN] + 2.0 h[mN] + nadh[mN]</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Neuron</t>
-        </is>
-      </c>
-      <c r="E187">
-        <v>0.9025310214062029</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>5625.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>PYLALDOXm_Neuron</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Perillyl aldehyde:NAD+ oxidoreductase (m) Neuron</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>h2o[mN] + nad[mN] + pylald[mN] --&gt; 2.0 h[mN] + nadh[mN] + peracd[mN]</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Neuron</t>
-        </is>
-      </c>
-      <c r="E188">
-        <v>1.030045624621994</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>8659, 217, 8659, 219</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>SACCD3m_Neuron</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>saccharopine dehydrogenase (NADP, L-lysine forming), mitochondrial Neuron</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>akg[mN] + h[mN] + lys-L[mN] + nadph[mN] --&gt; h2o[mN] + nadp[mN] + saccrp-L[mN]</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Neuron</t>
-        </is>
-      </c>
-      <c r="E189">
-        <v>1.035851894963545</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>10157</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>SACCD4m_Neuron</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>saccharopine dehydrogenase (NAD, L-glutamate forming), mitochondrial Neuron</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>h2o[mN] + nadp[mN] + saccrp-L[mN] --&gt; L2aadp6sa[mN] + glu-L[mN] + h[mN] + nadph[mN]</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Neuron</t>
-        </is>
-      </c>
-      <c r="E190">
-        <v>1.050131067975959</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>10157</t>
-        </is>
-      </c>
-    </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SLDxm_Neuron</t>
+          <t>PPCOACm_Neuron</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>L-sulfolactate dehydrogenase (NAD+), mitochondrial Neuron</t>
+          <t>Propionyl-CoA carboxylase, mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>nad[mN] + sl-L[mN] &lt;=&gt; 3spyr[mN] + h[mN] + nadh[mN]</t>
+          <t>atp[mN] + hco3[mN] + ppcoa[mN] --&gt; adp[mN] + h[mN] + mmcoa-S[mN] + pi[mN]</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7037,33 +7037,38 @@
         </is>
       </c>
       <c r="E191">
-        <v>0.9031694535629987</v>
+        <v>0.948257906191847</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>5096, 5095</t>
+        </is>
+      </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>4191.1</t>
+          <t>5095, 5096</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SPODMm_Neuron</t>
+          <t>PRO1xm_Neuron</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>superoxide dismutase Neuron</t>
+          <t>proline oxidase (NAD), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2.0 h[mN] + 2.0 o2s[mN] --&gt; h2o2[mN] + o2[mN]</t>
+          <t>nad[mN] + pro-L[mN] --&gt; 1pyr5c[mN] + 2.0 h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -7072,7 +7077,7 @@
         </is>
       </c>
       <c r="E192">
-        <v>0.9181878915012239</v>
+        <v>0.8768939180707849</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7081,24 +7086,24 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>6648.1</t>
+          <t>5625.1</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SSALxm_Neuron</t>
+          <t>PYLALDOXm_Neuron</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>succinate-semialdehyde dehydrogenase (NAD) reversible (mitochondrial) Neuron</t>
+          <t>Perillyl aldehyde:NAD+ oxidoreductase (m) Neuron</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>h2o[mN] + nad[mN] + sucsal[mN] --&gt; 2.0 h[mN] + nadh[mN] + succ[mN]</t>
+          <t>h2o[mN] + nad[mN] + pylald[mN] --&gt; 2.0 h[mN] + nadh[mN] + peracd[mN]</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -7107,33 +7112,33 @@
         </is>
       </c>
       <c r="E193">
-        <v>1.055596020488843</v>
+        <v>1.004223735709727</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>7915</t>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>8659, 217, 8659, 219</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>TKT2_Neuron</t>
+          <t>SACCD3m_Neuron</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>transketolase Neuron</t>
+          <t>saccharopine dehydrogenase (NADP, L-lysine forming), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>e4p[cN] + xu5p-D[cN] &lt;=&gt; f6p[cN] + g3p[cN]</t>
+          <t>akg[mN] + h[mN] + lys-L[mN] + nadph[mN] --&gt; h2o[mN] + nadp[mN] + saccrp-L[mN]</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -7142,33 +7147,33 @@
         </is>
       </c>
       <c r="E194">
-        <v>0.530436901268433</v>
+        <v>1.009822017882102</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>7086.1, 84076.1, 8277.1</t>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>10157</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>TRDRm_Neuron</t>
+          <t>SACCD4m_Neuron</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>thioredoxin reductase (NADPH) Neuron</t>
+          <t>saccharopine dehydrogenase (NAD, L-glutamate forming), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>h[mN] + nadph[mN] + trdox[mN] --&gt; nadp[mN] + trdrd[mN]</t>
+          <t>h2o[mN] + nadp[mN] + saccrp-L[mN] --&gt; L2aadp6sa[mN] + glu-L[mN] + h[mN] + nadph[mN]</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7177,33 +7182,33 @@
         </is>
       </c>
       <c r="E195">
-        <v>0.8686134646651222</v>
+        <v>1.02408538592311</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>114112.1, 10587.1, 10587.3, 10587.2</t>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>10157</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>VITD2Hm_Neuron</t>
+          <t>SLDxm_Neuron</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Vitamin D-25-hydroxylase (D2) Neuron</t>
+          <t>L-sulfolactate dehydrogenase (NAD+), mitochondrial Neuron</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>h[mN] + nadph[mN] + o2[mN] + vitd2[mN] --&gt; 25hvitd2[mN] + h2o[mN] + nadp[mN]</t>
+          <t>nad[mN] + sl-L[mN] &lt;=&gt; 3spyr[mN] + h[mN] + nadh[mN]</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7212,33 +7217,33 @@
         </is>
       </c>
       <c r="E196">
-        <v>1.115094927712768</v>
+        <v>0.8773817788087368</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>1593</t>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>4191.1</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>VITD3Hm_Neuron</t>
+          <t>SPODMm_Neuron</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Vitamin D-25-hydroxylase (D3) Neuron</t>
+          <t>superoxide dismutase Neuron</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>h[mN] + nadph[mN] + o2[mN] + vitd3[mN] --&gt; 25hvitd3[mN] + h2o[mN] + nadp[mN]</t>
+          <t>2.0 h[mN] + 2.0 o2s[mN] --&gt; h2o2[mN] + o2[mN]</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -7247,33 +7252,33 @@
         </is>
       </c>
       <c r="E197">
-        <v>1.133644036574826</v>
+        <v>0.8750700611060043</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
           <t>Central</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>1593</t>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>6648.1</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MTDNAdpolym_Neuron</t>
+          <t>SSALxm_Neuron</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>depolymerization of mtDNA for repair Neuron</t>
+          <t>succinate-semialdehyde dehydrogenase (NAD) reversible (mitochondrial) Neuron</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>33136.0 h2o[mN] + mtDNAn[mN] --&gt; 9218.0 damp[mN] + 7350.0 dcmp[mN] + 7350.0 dgmp[mN] + 9218.0 dtmp[mN] + 33136.0 h[mN] + mtDNAn-1[mN]</t>
+          <t>h2o[mN] + nad[mN] + sucsal[mN] --&gt; 2.0 h[mN] + nadh[mN] + succ[mN]</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -7282,44 +7287,219 @@
         </is>
       </c>
       <c r="E198">
-        <v>1.043446846216057</v>
+        <v>1.028628045516226</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
           <t>Central</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>7915</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
+          <t>TKT2_Neuron</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>transketolase Neuron</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>e4p[cN] + xu5p-D[cN] &lt;=&gt; f6p[cN] + g3p[cN]</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E199">
+        <v>0.3082196545117042</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>7086.1, 84076.1, 8277.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>TRDRm_Neuron</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>thioredoxin reductase (NADPH) Neuron</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>h[mN] + nadph[mN] + trdox[mN] --&gt; nadp[mN] + trdrd[mN]</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E200">
+        <v>0.8427718079628649</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>114112.1, 10587.1, 10587.3, 10587.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>VITD2Hm_Neuron</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Vitamin D-25-hydroxylase (D2) Neuron</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>h[mN] + nadph[mN] + o2[mN] + vitd2[mN] --&gt; 25hvitd2[mN] + h2o[mN] + nadp[mN]</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E201">
+        <v>1.056847418823766</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>VITD3Hm_Neuron</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Vitamin D-25-hydroxylase (D3) Neuron</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>h[mN] + nadph[mN] + o2[mN] + vitd3[mN] --&gt; 25hvitd3[mN] + h2o[mN] + nadp[mN]</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E202">
+        <v>1.058717895789898</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>1593</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>MTDNAdpolym_Neuron</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>depolymerization of mtDNA for repair Neuron</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>33136.0 h2o[mN] + mtDNAn[mN] --&gt; 9218.0 damp[mN] + 7350.0 dcmp[mN] + 7350.0 dgmp[mN] + 9218.0 dtmp[mN] + 33136.0 h[mN] + mtDNAn-1[mN]</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Neuron</t>
+        </is>
+      </c>
+      <c r="E203">
+        <v>1.009388533713899</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
           <t>ALDH1L1</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>ALDH1L1</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>10fthf[mA] + h2o[mA] + nadp[mA] --&gt; co2[mA] + h[mA] + nadph[mA] + thf[mA]</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Astrocyte</t>
-        </is>
-      </c>
-      <c r="E199">
-        <v>1.489316749579528</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Central</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Astrocyte</t>
+        </is>
+      </c>
+      <c r="E204">
+        <v>1.46067928077716</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
         <is>
           <t>10840</t>
         </is>
